--- a/data_paper.xlsx
+++ b/data_paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\APLIKASI PLS SEM PADA KINERJA KEUANGAN\Peta Streamlit Kinerja Keuangan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288EFFB9-5B34-4EAA-A924-074EB67F48DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923D595-A1C3-4303-AFB0-CB29D0CB7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>Judul</t>
   </si>
@@ -208,6 +208,39 @@
   </si>
   <si>
     <t>Pharmaceutical</t>
+  </si>
+  <si>
+    <t>SAGE</t>
+  </si>
+  <si>
+    <t>Organization and Environment</t>
+  </si>
+  <si>
+    <t>Management, Social Sustainability, Reputation, and Financial Performance Relationships: An Empirical Examination of U.S. Firms</t>
+  </si>
+  <si>
+    <t>Robert Sroufe, Venugopal Gopalakrishna-Remani</t>
+  </si>
+  <si>
+    <t>return on asset, return on investment, net profit margin</t>
+  </si>
+  <si>
+    <t>Fortune 500 firms simultaneously listed in the Newsweek Green rankings, The Corporate Knights Global 100, and the 100 Best Corporate Citizens lists</t>
+  </si>
+  <si>
+    <t>SAGE Open</t>
+  </si>
+  <si>
+    <t>Determinants of Discretionary Investments: Evidence From Indian Food Industry</t>
+  </si>
+  <si>
+    <t>K. S. Sujit, B. K. Rajesh</t>
+  </si>
+  <si>
+    <t>Profit before interest, tax, depreciation and amortization divided by total income; Net income/sales; Net income divided by total net worth; Net income divided by total assets; Profit after tax divided by total assets; Profit after tax divided by net worth; Profit after tax divided by total income</t>
+  </si>
+  <si>
+    <t>Indian Food Industry</t>
   </si>
 </sst>
 </file>
@@ -537,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +593,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -598,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2024</v>
       </c>
@@ -636,7 +669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2023</v>
       </c>
@@ -674,7 +707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2022</v>
       </c>
@@ -712,7 +745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2022</v>
       </c>
@@ -750,7 +783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2019</v>
       </c>
@@ -788,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2023</v>
       </c>
@@ -824,7 +857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2023</v>
       </c>
@@ -862,7 +895,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2021</v>
       </c>
@@ -899,6 +932,86 @@
       <c r="L9" s="3" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_paper.xlsx
+++ b/data_paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PYTHON-STREAMLIT\APLIKASI PLS SEM PADA KINERJA KEUANGAN\Peta Streamlit Kinerja Keuangan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6923D595-A1C3-4303-AFB0-CB29D0CB7934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD652A8D-A070-411B-8BDE-5D43F09DD87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>Judul</t>
   </si>
@@ -241,6 +241,114 @@
   </si>
   <si>
     <t>Indian Food Industry</t>
+  </si>
+  <si>
+    <t>International Journal of Economics, Business and Accounting Research (IJEBAR)</t>
+  </si>
+  <si>
+    <t>The Influence of Financial Performance on Stock Returns with ESG as an Intervening Variable</t>
+  </si>
+  <si>
+    <t>Iqbal Arraniri, Yasir Maulana, Munir Nur Komarudin, Wely Hadi Gunawan</t>
+  </si>
+  <si>
+    <t>Return on Investment, Price Earning Ratio, Price to Book Value, Operating Profit Margin</t>
+  </si>
+  <si>
+    <t>2018-2022</t>
+  </si>
+  <si>
+    <t>Independen</t>
+  </si>
+  <si>
+    <t>Environmental, Social and Governance (ESG)</t>
+  </si>
+  <si>
+    <t>IDX ESG (Environmental, Social and Governance) Index</t>
+  </si>
+  <si>
+    <t>Pakistan Journal of Social Sciences (PJSS)</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Impact of Corporate Governance on Financial Performance</t>
+  </si>
+  <si>
+    <t>Muhammad Abdul Majid Makki, Suleman Aziz Lodhi</t>
+  </si>
+  <si>
+    <t>net profit after tax, return on equity, return on investment</t>
+  </si>
+  <si>
+    <t>2005-2009</t>
+  </si>
+  <si>
+    <t>Corporate Governance</t>
+  </si>
+  <si>
+    <t>PLS Graph software</t>
+  </si>
+  <si>
+    <t>Karachi Stock Exchange listed companies</t>
+  </si>
+  <si>
+    <t>Periode Tahun yang Diteliti</t>
+  </si>
+  <si>
+    <t>2010-2021</t>
+  </si>
+  <si>
+    <t>2014-2019</t>
+  </si>
+  <si>
+    <t>2015-2021</t>
+  </si>
+  <si>
+    <t>2007-2016</t>
+  </si>
+  <si>
+    <t>2005-2021</t>
+  </si>
+  <si>
+    <t>2008-2013</t>
+  </si>
+  <si>
+    <t>Variabel Dependen</t>
+  </si>
+  <si>
+    <t>Variabel Independen</t>
+  </si>
+  <si>
+    <t>sustainability report, good corporate government</t>
+  </si>
+  <si>
+    <t>Bank-Specific Factors, Industry-Specific Factors, Macroeconomic Variables</t>
+  </si>
+  <si>
+    <t>Non Performing Loans (NPL), Loan Deposit Ratio (LDR), Net Interest Margin (NIM), Operating Efficiency Ratio (OER), Capital Adequacy Ratio (CAR), Good Corporate Governance (GCG)</t>
+  </si>
+  <si>
+    <t>Corporate Governance, Capital Structure</t>
+  </si>
+  <si>
+    <t>bank specific variables, operational risk, credit risk</t>
+  </si>
+  <si>
+    <t>inflation</t>
+  </si>
+  <si>
+    <t>environmental, social, governance</t>
+  </si>
+  <si>
+    <t>environmental, social, governance (ESG) and controversy indicators</t>
+  </si>
+  <si>
+    <t>Sustainability Management, Social Sustainability Performance, Sustainability Reputation</t>
+  </si>
+  <si>
+    <t>Growth, Size, OPEFFI (asset utilization/efficiency ratios)</t>
   </si>
 </sst>
 </file>
@@ -276,19 +384,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,26 +683,29 @@
     <col min="1" max="1" width="19.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="73" style="1" customWidth="1"/>
-    <col min="4" max="4" width="86.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="82" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="31.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="123.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="82" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="33.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="34.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="147.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="54.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="54.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="144.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -618,27 +723,36 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2024</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -656,27 +770,34 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2023</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -694,27 +815,34 @@
       <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2022</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -732,27 +860,34 @@
       <c r="H4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="M4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2022</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -770,27 +905,34 @@
       <c r="H5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2019</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -808,27 +950,34 @@
       <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2023</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -846,25 +995,32 @@
       <c r="H7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="M7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2023</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -882,27 +1038,32 @@
       <c r="H8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2021</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -920,98 +1081,197 @@
       <c r="H9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2019</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>3</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2016</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="M11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
